--- a/DIG-Foundations/覚えた関数、メゾットその他.xlsx
+++ b/DIG-Foundations/覚えた関数、メゾットその他.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susum\Documents\GitHub\DIG_Work-1\DIG-Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DE6A53-694C-4BA1-AEA4-88B104D6250B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD54C8DF-9CED-4683-BF09-2924E00EEB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="2790" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="670" windowWidth="21040" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="168">
   <si>
     <t>関数・メゾット</t>
     <rPh sb="0" eb="2">
@@ -683,6 +683,241 @@
   <si>
     <t>IDは＃</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for(const xx of array)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for(const xx in array)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列のループ</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトのループ　　（配列で使うとインデックスが使える）</t>
+    <rPh sb="13" eb="15">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>  }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>function createPasswordProtectedAccount(userChosenPassword) {</t>
+  </si>
+  <si>
+    <t>  const savedPassword = userChosenPassword;</t>
+  </si>
+  <si>
+    <t>  function checkPassword(passwordEntered) {</t>
+  </si>
+  <si>
+    <t>    if (savedPassword === passwordEntered) {</t>
+  </si>
+  <si>
+    <t>      console.log("正しいパスワードです。アクセスを許可します。");</t>
+  </si>
+  <si>
+    <t>    } else {</t>
+  </si>
+  <si>
+    <t>      console.log("パスワードが間違っています。アクセスできません。");</t>
+  </si>
+  <si>
+    <t>  return checkPassword;</t>
+  </si>
+  <si>
+    <t>* @param {number} x,y</t>
+  </si>
+  <si>
+    <t>* @returns {(y: number) =&gt; number} 引数として y を取り、x を y で割った値を返す関数</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>// ここにコードを書きましょう</t>
+  </si>
+  <si>
+    <t>function divide(x){</t>
+  </si>
+  <si>
+    <t>  function devide2(y){</t>
+  </si>
+  <si>
+    <t>    // console.log(x,y,x/y);</t>
+  </si>
+  <si>
+    <t>    return x / y ;</t>
+  </si>
+  <si>
+    <t>  return devide2;</t>
+  </si>
+  <si>
+    <t>const divide2 = divide(2);</t>
+  </si>
+  <si>
+    <t>test(divide2(4), 0.5);</t>
+  </si>
+  <si>
+    <t>test(divide(2)(1), 2);</t>
+  </si>
+  <si>
+    <t>function squareArray(array){</t>
+  </si>
+  <si>
+    <t>  let result = [];</t>
+  </si>
+  <si>
+    <t>  for (const num of array){</t>
+  </si>
+  <si>
+    <t>    result.push( num ** 2 );</t>
+  </si>
+  <si>
+    <t>  return result;</t>
+  </si>
+  <si>
+    <t>test(squareArray([2,3,4,5,6]),[4,9,16,25,36]);</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("title").style.fodocument.getElementsByClassName("title")[0].style.fontSize = "50px"</t>
+  </si>
+  <si>
+    <t>const arr = document.getElementsByClassName("title");</t>
+  </si>
+  <si>
+    <t>function colorCheng(num){</t>
+  </si>
+  <si>
+    <t>  document.getElementsByClassName("title")[num].style.backgroundColor = "blue";</t>
+  </si>
+  <si>
+    <t>for (const num in arr){</t>
+  </si>
+  <si>
+    <t>  colorCheng(num);</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t>* @param {{ [key: string]: number }} numObj</t>
+  </si>
+  <si>
+    <t>* @returns {{ [key: string]: number }} 与えられたオブジェクトと同じ値を持つが、</t>
+  </si>
+  <si>
+    <t>数値には 1 が足されたオブジェクト</t>
+  </si>
+  <si>
+    <t>function incrementNumbers(numObj){</t>
+  </si>
+  <si>
+    <t>  const resultObj = {};</t>
+  </si>
+  <si>
+    <t>  for (const key in numObj){</t>
+  </si>
+  <si>
+    <t>    if (typeof numObj[key] === "number"){</t>
+  </si>
+  <si>
+    <t>      resultObj[key] = numObj[key] + 1;</t>
+  </si>
+  <si>
+    <t>    }else{</t>
+  </si>
+  <si>
+    <t>      resultObj[key] = numObj[key];</t>
+  </si>
+  <si>
+    <t>    console.log(key, numObj[key], resultObj);</t>
+  </si>
+  <si>
+    <t>  return resultObj;</t>
+  </si>
+  <si>
+    <t>test(incrementNumbers({ a: 1, b: 2, 1: 3, d: "hello" }), {</t>
+  </si>
+  <si>
+    <t>  a: 2,</t>
+  </si>
+  <si>
+    <t>  b: 3,</t>
+  </si>
+  <si>
+    <t>  1: 4,</t>
+  </si>
+  <si>
+    <t>  d: "hello",</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>test(incrementNumbers({ a: 2, b: 3, 1: 4, d: "hello" }), {</t>
+  </si>
+  <si>
+    <t>  b: 4,</t>
+  </si>
+  <si>
+    <t>  a: 3,</t>
+  </si>
+  <si>
+    <t>  1: 5,</t>
+  </si>
+  <si>
+    <t>const arrayOfObjects = [</t>
+  </si>
+  <si>
+    <t>  { name: "alice", favoriteColor: "green" },</t>
+  </si>
+  <si>
+    <t>  { name: "bob", favoriteColor: "blue" },</t>
+  </si>
+  <si>
+    <t>];</t>
+  </si>
+  <si>
+    <t>* @param {Array&lt;number&gt;} wordArray</t>
+  </si>
+  <si>
+    <t>* @returns {Array&lt;number&gt;} 与えられた配列の各要素から名前の値を返す。</t>
+  </si>
+  <si>
+    <t>function getNames(wordArray) {</t>
+  </si>
+  <si>
+    <t>  return wordArray.map(function (user) {</t>
+  </si>
+  <si>
+    <t>    // console.log(user.name);</t>
+  </si>
+  <si>
+    <t>    return user.name;</t>
+  </si>
+  <si>
+    <t>  })</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D42"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1337,22 +1572,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="1:4">
       <c r="C33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="1:4">
       <c r="C34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="1:4">
       <c r="C35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="1:4">
       <c r="B36" t="s">
         <v>85</v>
       </c>
@@ -1360,7 +1595,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="1:4">
       <c r="B37" t="s">
         <v>87</v>
       </c>
@@ -1368,7 +1603,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="1:4">
       <c r="B38" t="s">
         <v>87</v>
       </c>
@@ -1376,25 +1611,484 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="54">
-      <c r="B40" t="s">
+    <row r="39" spans="1:4" ht="54">
+      <c r="B39" t="s">
         <v>90</v>
       </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="C40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="C41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="B67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="B82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="B85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="B86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="B87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="B90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="B92" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="B93" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="B95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="B97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="B98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="B99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="B100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="B101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="B102" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="B103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="B104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="B105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="B106" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>17</v>
+      </c>
+      <c r="B109" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="B110" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="B111" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="B112" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>18</v>
+      </c>
+      <c r="B130" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="B131" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="B132" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="B133" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="B135" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="B136" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="B137" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="B138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="B139" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="B140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="B141" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="B142" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="B143" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="B144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/DIG-Foundations/覚えた関数、メゾットその他.xlsx
+++ b/DIG-Foundations/覚えた関数、メゾットその他.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susum\Documents\GitHub\DIG_Work-1\DIG-Foundations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業用フォルダ\DIG_Work\DIG-Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD54C8DF-9CED-4683-BF09-2924E00EEB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B63238-3B2B-42CA-B76F-1AA192989B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="670" windowWidth="21040" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="86280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1245,18 +1254,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="97.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="103.08203125" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" customWidth="1"/>
+    <col min="2" max="2" width="31.796875" customWidth="1"/>
+    <col min="3" max="3" width="97.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="103.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -1648,446 +1657,446 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
+    <row r="46" spans="1:4">
+      <c r="A46">
         <v>13</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="B46" t="s">
+    <row r="47" spans="1:4">
+      <c r="B47" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="B48" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="B49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="B51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="B52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="B53" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="B54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="B56" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="B57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
+    <row r="60" spans="1:2">
+      <c r="A60">
         <v>14</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="B60" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="B61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="B62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="B63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="B64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="B65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="B66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="B67" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="B68" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="B69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="B71" t="s">
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="B73" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="B74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="B75" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
+    <row r="78" spans="1:2">
+      <c r="A78">
         <v>15</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="B79" t="s">
+    <row r="80" spans="1:2">
+      <c r="B80" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="B81" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="B84" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="B85" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="B86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
+    <row r="90" spans="1:2">
+      <c r="A90">
         <v>16</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="B90" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="B91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="B92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="B93" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="B94" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="B95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="B96" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="B97" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="B98" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="B99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="B100" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="B101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="B102" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="B103" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="B104" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="B105" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="B106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="B107" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
+    <row r="110" spans="1:2">
+      <c r="A110">
         <v>17</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="B110" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="B111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="B112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="B129" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130">
+    <row r="131" spans="1:2">
+      <c r="A131">
         <v>18</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="B131" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="B132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="B133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="B134" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="B135" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="B136" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="B137" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="B138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="B139" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="B140" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="B141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="B142" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="B143" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="B144" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
         <v>101</v>
       </c>
     </row>
